--- a/StructureDefinition-ext-R5-NutritionOrder.enteralFormula.xlsx
+++ b/StructureDefinition-ext-R5-NutritionOrder.enteralFormula.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4664" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4664" uniqueCount="378">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -458,8 +458,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:baseFormulaType.extension:concept.id</t>
@@ -481,7 +480,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-entformula-type-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-entformula-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:baseFormulaType.extension:reference</t>
@@ -496,8 +495,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:baseFormulaType.extension:reference.id</t>
@@ -512,7 +510,7 @@
     <t>Extension.extension:baseFormulaType.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionProduct|0.0.1-snapshot-3|Basic|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionProduct|Basic)
 </t>
   </si>
   <si>
@@ -633,7 +631,7 @@
     <t>Extension.extension:deliveryDevice.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|0.0.1-snapshot-3|DeviceDefinition|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|DeviceDefinition)
 </t>
   </si>
   <si>
@@ -732,7 +730,7 @@
     <t>Extension.extension:additive.extension:type.extension:concept.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-entformula-additive-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-entformula-additive-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:additive.extension:type.extension:reference</t>
@@ -821,7 +819,7 @@
     <t>Extension.extension:additive.extension:quantity.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -896,15 +894,6 @@
     <t>Extension.extension:routeOfAdministration.value[x]</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Codes specifying the route of administration of enteral formula.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-enteral-route-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:administration</t>
   </si>
   <si>
@@ -1051,15 +1040,6 @@
   </si>
   <si>
     <t>Extension.extension:administration.extension:schedule.extension:asNeededFor.value[x]</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A coded concept identifying the precondition that should be met or evaluated prior to       consuming an enteral formula.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-medication-as-needed-reason-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:administration.extension:schedule.url</t>
@@ -1135,7 +1115,7 @@
     <t>Extension.extension:administration.extension:rate.value[x]</t>
   </si>
   <si>
-    <t>Quantity {SimpleQuantity|4.0.1}
+    <t>Quantity {SimpleQuantity}
 Ratio</t>
   </si>
   <si>
@@ -1564,8 +1544,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="97.66015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.47265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.40625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -11360,13 +11340,13 @@
         <v>77</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>282</v>
+        <v>77</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>77</v>
@@ -11404,13 +11384,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>77</v>
@@ -11435,16 +11415,16 @@
         <v>93</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="O95" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -11513,7 +11493,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>105</v>
@@ -11616,7 +11596,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>107</v>
@@ -11719,13 +11699,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>77</v>
@@ -11750,14 +11730,14 @@
         <v>93</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>77</v>
@@ -11826,7 +11806,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>113</v>
@@ -11929,7 +11909,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>115</v>
@@ -12032,13 +12012,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>115</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>77</v>
@@ -12063,14 +12043,14 @@
         <v>93</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>77</v>
@@ -12139,7 +12119,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>217</v>
@@ -12242,7 +12222,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>219</v>
@@ -12347,7 +12327,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>221</v>
@@ -12390,7 +12370,7 @@
       </c>
       <c r="Q104" s="2"/>
       <c r="R104" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="S104" t="s" s="2">
         <v>77</v>
@@ -12452,7 +12432,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>223</v>
@@ -12478,13 +12458,13 @@
         <v>77</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -12555,13 +12535,13 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>115</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>77</v>
@@ -12586,14 +12566,14 @@
         <v>93</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>77</v>
@@ -12662,7 +12642,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>217</v>
@@ -12765,7 +12745,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>219</v>
@@ -12870,7 +12850,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>221</v>
@@ -12913,7 +12893,7 @@
       </c>
       <c r="Q109" s="2"/>
       <c r="R109" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S109" t="s" s="2">
         <v>77</v>
@@ -12975,7 +12955,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>223</v>
@@ -13001,13 +12981,13 @@
         <v>77</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -13078,13 +13058,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>115</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D111" t="s" s="2">
         <v>77</v>
@@ -13109,14 +13089,14 @@
         <v>93</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>77</v>
@@ -13185,7 +13165,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>217</v>
@@ -13288,7 +13268,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>219</v>
@@ -13393,7 +13373,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>221</v>
@@ -13436,7 +13416,7 @@
       </c>
       <c r="Q114" s="2"/>
       <c r="R114" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="S114" t="s" s="2">
         <v>77</v>
@@ -13498,7 +13478,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>223</v>
@@ -13527,10 +13507,10 @@
         <v>146</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -13557,13 +13537,13 @@
         <v>77</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>333</v>
+        <v>77</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>334</v>
+        <v>77</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>77</v>
@@ -13601,7 +13581,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>121</v>
@@ -13644,7 +13624,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>77</v>
@@ -13706,7 +13686,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>130</v>
@@ -13809,7 +13789,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>107</v>
@@ -13840,14 +13820,14 @@
         <v>93</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -13916,7 +13896,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>113</v>
@@ -14019,7 +13999,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>115</v>
@@ -14124,7 +14104,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>121</v>
@@ -14167,7 +14147,7 @@
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>77</v>
@@ -14229,7 +14209,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>130</v>
@@ -14258,10 +14238,10 @@
         <v>258</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -14332,13 +14312,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>77</v>
@@ -14363,16 +14343,16 @@
         <v>93</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -14441,7 +14421,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>113</v>
@@ -14544,7 +14524,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>115</v>
@@ -14649,7 +14629,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>121</v>
@@ -14692,7 +14672,7 @@
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>77</v>
@@ -14754,7 +14734,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>130</v>
@@ -14780,16 +14760,16 @@
         <v>77</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
@@ -14859,7 +14839,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>160</v>
@@ -14902,7 +14882,7 @@
       </c>
       <c r="Q128" s="2"/>
       <c r="R128" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="S128" t="s" s="2">
         <v>77</v>
@@ -14964,7 +14944,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>163</v>
@@ -15067,13 +15047,13 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D130" t="s" s="2">
         <v>77</v>
@@ -15098,14 +15078,14 @@
         <v>93</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>77</v>
@@ -15174,7 +15154,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>105</v>
@@ -15277,7 +15257,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>107</v>
@@ -15382,7 +15362,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>160</v>
@@ -15425,7 +15405,7 @@
       </c>
       <c r="Q133" s="2"/>
       <c r="R133" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="S133" t="s" s="2">
         <v>77</v>
@@ -15487,7 +15467,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>163</v>
@@ -15516,10 +15496,10 @@
         <v>258</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
@@ -15590,13 +15570,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>77</v>
@@ -15621,16 +15601,16 @@
         <v>93</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>77</v>
@@ -15699,7 +15679,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>105</v>
@@ -15802,7 +15782,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>107</v>
@@ -15907,7 +15887,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>160</v>
@@ -15950,7 +15930,7 @@
       </c>
       <c r="Q138" s="2"/>
       <c r="R138" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="S138" t="s" s="2">
         <v>77</v>
@@ -16012,7 +15992,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>163</v>
@@ -16038,16 +16018,16 @@
         <v>77</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="O139" s="2"/>
       <c r="P139" t="s" s="2">
